--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cxadr-Cxadr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cxadr-Cxadr.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.642862</v>
+        <v>3.197839</v>
       </c>
       <c r="H2">
-        <v>10.928586</v>
+        <v>9.593517</v>
       </c>
       <c r="I2">
-        <v>0.4612088958745498</v>
+        <v>0.4734596327704848</v>
       </c>
       <c r="J2">
-        <v>0.4612088958745498</v>
+        <v>0.4734596327704849</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.642862</v>
+        <v>3.197839</v>
       </c>
       <c r="N2">
-        <v>10.928586</v>
+        <v>9.593517</v>
       </c>
       <c r="O2">
-        <v>0.4612088958745498</v>
+        <v>0.4734596327704848</v>
       </c>
       <c r="P2">
-        <v>0.4612088958745498</v>
+        <v>0.4734596327704849</v>
       </c>
       <c r="Q2">
-        <v>13.270443551044</v>
+        <v>10.226174269921</v>
       </c>
       <c r="R2">
-        <v>119.433991959396</v>
+        <v>92.035568429289</v>
       </c>
       <c r="S2">
-        <v>0.2127136456338213</v>
+        <v>0.2241640238631623</v>
       </c>
       <c r="T2">
-        <v>0.2127136456338213</v>
+        <v>0.2241640238631624</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.642862</v>
+        <v>3.197839</v>
       </c>
       <c r="H3">
-        <v>10.928586</v>
+        <v>9.593517</v>
       </c>
       <c r="I3">
-        <v>0.4612088958745498</v>
+        <v>0.4734596327704848</v>
       </c>
       <c r="J3">
-        <v>0.4612088958745498</v>
+        <v>0.4734596327704849</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>6.037239</v>
       </c>
       <c r="O3">
-        <v>0.254783952225912</v>
+        <v>0.2979500593877771</v>
       </c>
       <c r="P3">
-        <v>0.254783952225912</v>
+        <v>0.2979500593877771</v>
       </c>
       <c r="Q3">
-        <v>7.330942846005999</v>
+        <v>6.435372775507</v>
       </c>
       <c r="R3">
-        <v>65.97848561405399</v>
+        <v>57.918354979563</v>
       </c>
       <c r="S3">
-        <v>0.1175086252926669</v>
+        <v>0.1410673257016811</v>
       </c>
       <c r="T3">
-        <v>0.117508625292667</v>
+        <v>0.1410673257016811</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,46 +658,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.642862</v>
+        <v>3.197839</v>
       </c>
       <c r="H4">
-        <v>10.928586</v>
+        <v>9.593517</v>
       </c>
       <c r="I4">
-        <v>0.4612088958745498</v>
+        <v>0.4734596327704848</v>
       </c>
       <c r="J4">
-        <v>0.4612088958745498</v>
+        <v>0.4734596327704849</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.2142513333333333</v>
+        <v>0.1668016666666667</v>
       </c>
       <c r="N4">
-        <v>0.642754</v>
+        <v>0.500405</v>
       </c>
       <c r="O4">
-        <v>0.02712554603669225</v>
+        <v>0.02469600747426772</v>
       </c>
       <c r="P4">
-        <v>0.02712554603669225</v>
+        <v>0.02469600747426772</v>
       </c>
       <c r="Q4">
-        <v>0.7804880406493333</v>
+        <v>0.5334048749316667</v>
       </c>
       <c r="R4">
-        <v>7.024392365844</v>
+        <v>4.800643874385</v>
       </c>
       <c r="S4">
-        <v>0.0125105431375771</v>
+        <v>0.01169256262966394</v>
       </c>
       <c r="T4">
-        <v>0.0125105431375771</v>
+        <v>0.01169256262966394</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.642862</v>
+        <v>3.197839</v>
       </c>
       <c r="H5">
-        <v>10.928586</v>
+        <v>9.593517</v>
       </c>
       <c r="I5">
-        <v>0.4612088958745498</v>
+        <v>0.4734596327704848</v>
       </c>
       <c r="J5">
-        <v>0.4612088958745498</v>
+        <v>0.4734596327704849</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.028981333333333</v>
+        <v>1.377142</v>
       </c>
       <c r="N5">
-        <v>6.086944</v>
+        <v>4.131426</v>
       </c>
       <c r="O5">
-        <v>0.2568816058628459</v>
+        <v>0.2038943003674704</v>
       </c>
       <c r="P5">
-        <v>0.2568816058628459</v>
+        <v>0.2038943003674704</v>
       </c>
       <c r="Q5">
-        <v>7.391298997909332</v>
+        <v>4.403878396138</v>
       </c>
       <c r="R5">
-        <v>66.52169098118399</v>
+        <v>39.634905565242</v>
       </c>
       <c r="S5">
-        <v>0.1184760818104844</v>
+        <v>0.09653572057597744</v>
       </c>
       <c r="T5">
-        <v>0.1184760818104845</v>
+        <v>0.09653572057597745</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>6.037239</v>
       </c>
       <c r="I6">
-        <v>0.254783952225912</v>
+        <v>0.2979500593877771</v>
       </c>
       <c r="J6">
-        <v>0.254783952225912</v>
+        <v>0.2979500593877771</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.642862</v>
+        <v>3.197839</v>
       </c>
       <c r="N6">
-        <v>10.928586</v>
+        <v>9.593517</v>
       </c>
       <c r="O6">
-        <v>0.4612088958745498</v>
+        <v>0.4734596327704848</v>
       </c>
       <c r="P6">
-        <v>0.4612088958745498</v>
+        <v>0.4734596327704849</v>
       </c>
       <c r="Q6">
-        <v>7.330942846005999</v>
+        <v>6.435372775507</v>
       </c>
       <c r="R6">
-        <v>65.97848561405399</v>
+        <v>57.918354979563</v>
       </c>
       <c r="S6">
-        <v>0.1175086252926669</v>
+        <v>0.1410673257016811</v>
       </c>
       <c r="T6">
-        <v>0.117508625292667</v>
+        <v>0.1410673257016811</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>6.037239</v>
       </c>
       <c r="I7">
-        <v>0.254783952225912</v>
+        <v>0.2979500593877771</v>
       </c>
       <c r="J7">
-        <v>0.254783952225912</v>
+        <v>0.2979500593877771</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>6.037239</v>
       </c>
       <c r="O7">
-        <v>0.254783952225912</v>
+        <v>0.2979500593877771</v>
       </c>
       <c r="P7">
-        <v>0.254783952225912</v>
+        <v>0.2979500593877771</v>
       </c>
       <c r="Q7">
         <v>4.049806082569</v>
@@ -880,10 +880,10 @@
         <v>36.448254743121</v>
       </c>
       <c r="S7">
-        <v>0.06491486231185584</v>
+        <v>0.08877423788917989</v>
       </c>
       <c r="T7">
-        <v>0.06491486231185584</v>
+        <v>0.08877423788917989</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>6.037239</v>
       </c>
       <c r="I8">
-        <v>0.254783952225912</v>
+        <v>0.2979500593877771</v>
       </c>
       <c r="J8">
-        <v>0.254783952225912</v>
+        <v>0.2979500593877771</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.2142513333333333</v>
+        <v>0.1668016666666667</v>
       </c>
       <c r="N8">
-        <v>0.642754</v>
+        <v>0.500405</v>
       </c>
       <c r="O8">
-        <v>0.02712554603669225</v>
+        <v>0.02469600747426772</v>
       </c>
       <c r="P8">
-        <v>0.02712554603669225</v>
+        <v>0.02469600747426772</v>
       </c>
       <c r="Q8">
-        <v>0.4311621684673334</v>
+        <v>0.3356738424216666</v>
       </c>
       <c r="R8">
-        <v>3.880459516206</v>
+        <v>3.021064581795</v>
       </c>
       <c r="S8">
-        <v>0.006911153825514376</v>
+        <v>0.007358176893599054</v>
       </c>
       <c r="T8">
-        <v>0.006911153825514377</v>
+        <v>0.007358176893599054</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>6.037239</v>
       </c>
       <c r="I9">
-        <v>0.254783952225912</v>
+        <v>0.2979500593877771</v>
       </c>
       <c r="J9">
-        <v>0.254783952225912</v>
+        <v>0.2979500593877771</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.028981333333333</v>
+        <v>1.377142</v>
       </c>
       <c r="N9">
-        <v>6.086944</v>
+        <v>4.131426</v>
       </c>
       <c r="O9">
-        <v>0.2568816058628459</v>
+        <v>0.2038943003674704</v>
       </c>
       <c r="P9">
-        <v>0.2568816058628459</v>
+        <v>0.2038943003674704</v>
       </c>
       <c r="Q9">
-        <v>4.083148411957334</v>
+        <v>2.771378463646</v>
       </c>
       <c r="R9">
-        <v>36.748335707616</v>
+        <v>24.942406172814</v>
       </c>
       <c r="S9">
-        <v>0.0654493107958749</v>
+        <v>0.06075031890331705</v>
       </c>
       <c r="T9">
-        <v>0.0654493107958749</v>
+        <v>0.06075031890331705</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,22 +1024,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.2142513333333333</v>
+        <v>0.1668016666666667</v>
       </c>
       <c r="H10">
-        <v>0.642754</v>
+        <v>0.500405</v>
       </c>
       <c r="I10">
-        <v>0.02712554603669225</v>
+        <v>0.02469600747426772</v>
       </c>
       <c r="J10">
-        <v>0.02712554603669225</v>
+        <v>0.02469600747426772</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.642862</v>
+        <v>3.197839</v>
       </c>
       <c r="N10">
-        <v>10.928586</v>
+        <v>9.593517</v>
       </c>
       <c r="O10">
-        <v>0.4612088958745498</v>
+        <v>0.4734596327704848</v>
       </c>
       <c r="P10">
-        <v>0.4612088958745498</v>
+        <v>0.4734596327704849</v>
       </c>
       <c r="Q10">
-        <v>0.7804880406493333</v>
+        <v>0.5334048749316667</v>
       </c>
       <c r="R10">
-        <v>7.024392365844</v>
+        <v>4.800643874385</v>
       </c>
       <c r="S10">
-        <v>0.0125105431375771</v>
+        <v>0.01169256262966394</v>
       </c>
       <c r="T10">
-        <v>0.0125105431375771</v>
+        <v>0.01169256262966394</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,22 +1086,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.2142513333333333</v>
+        <v>0.1668016666666667</v>
       </c>
       <c r="H11">
-        <v>0.642754</v>
+        <v>0.500405</v>
       </c>
       <c r="I11">
-        <v>0.02712554603669225</v>
+        <v>0.02469600747426772</v>
       </c>
       <c r="J11">
-        <v>0.02712554603669225</v>
+        <v>0.02469600747426772</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,22 +1116,22 @@
         <v>6.037239</v>
       </c>
       <c r="O11">
-        <v>0.254783952225912</v>
+        <v>0.2979500593877771</v>
       </c>
       <c r="P11">
-        <v>0.254783952225912</v>
+        <v>0.2979500593877771</v>
       </c>
       <c r="Q11">
-        <v>0.4311621684673334</v>
+        <v>0.3356738424216666</v>
       </c>
       <c r="R11">
-        <v>3.880459516206</v>
+        <v>3.021064581795</v>
       </c>
       <c r="S11">
-        <v>0.006911153825514376</v>
+        <v>0.007358176893599054</v>
       </c>
       <c r="T11">
-        <v>0.006911153825514377</v>
+        <v>0.007358176893599054</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,52 +1148,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.2142513333333333</v>
+        <v>0.1668016666666667</v>
       </c>
       <c r="H12">
-        <v>0.642754</v>
+        <v>0.500405</v>
       </c>
       <c r="I12">
-        <v>0.02712554603669225</v>
+        <v>0.02469600747426772</v>
       </c>
       <c r="J12">
-        <v>0.02712554603669225</v>
+        <v>0.02469600747426772</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.2142513333333333</v>
+        <v>0.1668016666666667</v>
       </c>
       <c r="N12">
-        <v>0.642754</v>
+        <v>0.500405</v>
       </c>
       <c r="O12">
-        <v>0.02712554603669225</v>
+        <v>0.02469600747426772</v>
       </c>
       <c r="P12">
-        <v>0.02712554603669225</v>
+        <v>0.02469600747426772</v>
       </c>
       <c r="Q12">
-        <v>0.04590363383511112</v>
+        <v>0.02782279600277777</v>
       </c>
       <c r="R12">
-        <v>0.413132704516</v>
+        <v>0.250405164025</v>
       </c>
       <c r="S12">
-        <v>0.0007357952477887107</v>
+        <v>0.0006098927851690872</v>
       </c>
       <c r="T12">
-        <v>0.0007357952477887108</v>
+        <v>0.0006098927851690872</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,22 +1210,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.2142513333333333</v>
+        <v>0.1668016666666667</v>
       </c>
       <c r="H13">
-        <v>0.642754</v>
+        <v>0.500405</v>
       </c>
       <c r="I13">
-        <v>0.02712554603669225</v>
+        <v>0.02469600747426772</v>
       </c>
       <c r="J13">
-        <v>0.02712554603669225</v>
+        <v>0.02469600747426772</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1234,28 +1234,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.028981333333333</v>
+        <v>1.377142</v>
       </c>
       <c r="N13">
-        <v>6.086944</v>
+        <v>4.131426</v>
       </c>
       <c r="O13">
-        <v>0.2568816058628459</v>
+        <v>0.2038943003674704</v>
       </c>
       <c r="P13">
-        <v>0.2568816058628459</v>
+        <v>0.2038943003674704</v>
       </c>
       <c r="Q13">
-        <v>0.4347119559751111</v>
+        <v>0.2297095808366667</v>
       </c>
       <c r="R13">
-        <v>3.912407603776</v>
+        <v>2.06738622753</v>
       </c>
       <c r="S13">
-        <v>0.006968053825812061</v>
+        <v>0.005035375165835636</v>
       </c>
       <c r="T13">
-        <v>0.006968053825812062</v>
+        <v>0.005035375165835636</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,16 +1278,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.028981333333333</v>
+        <v>1.377142</v>
       </c>
       <c r="H14">
-        <v>6.086944</v>
+        <v>4.131426</v>
       </c>
       <c r="I14">
-        <v>0.2568816058628459</v>
+        <v>0.2038943003674704</v>
       </c>
       <c r="J14">
-        <v>0.2568816058628459</v>
+        <v>0.2038943003674704</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1296,28 +1296,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.642862</v>
+        <v>3.197839</v>
       </c>
       <c r="N14">
-        <v>10.928586</v>
+        <v>9.593517</v>
       </c>
       <c r="O14">
-        <v>0.4612088958745498</v>
+        <v>0.4734596327704848</v>
       </c>
       <c r="P14">
-        <v>0.4612088958745498</v>
+        <v>0.4734596327704849</v>
       </c>
       <c r="Q14">
-        <v>7.391298997909332</v>
+        <v>4.403878396138</v>
       </c>
       <c r="R14">
-        <v>66.52169098118399</v>
+        <v>39.634905565242</v>
       </c>
       <c r="S14">
-        <v>0.1184760818104844</v>
+        <v>0.09653572057597744</v>
       </c>
       <c r="T14">
-        <v>0.1184760818104845</v>
+        <v>0.09653572057597745</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,16 +1340,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.028981333333333</v>
+        <v>1.377142</v>
       </c>
       <c r="H15">
-        <v>6.086944</v>
+        <v>4.131426</v>
       </c>
       <c r="I15">
-        <v>0.2568816058628459</v>
+        <v>0.2038943003674704</v>
       </c>
       <c r="J15">
-        <v>0.2568816058628459</v>
+        <v>0.2038943003674704</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,22 +1364,22 @@
         <v>6.037239</v>
       </c>
       <c r="O15">
-        <v>0.254783952225912</v>
+        <v>0.2979500593877771</v>
       </c>
       <c r="P15">
-        <v>0.254783952225912</v>
+        <v>0.2979500593877771</v>
       </c>
       <c r="Q15">
-        <v>4.083148411957334</v>
+        <v>2.771378463646</v>
       </c>
       <c r="R15">
-        <v>36.748335707616</v>
+        <v>24.942406172814</v>
       </c>
       <c r="S15">
-        <v>0.0654493107958749</v>
+        <v>0.06075031890331705</v>
       </c>
       <c r="T15">
-        <v>0.0654493107958749</v>
+        <v>0.06075031890331705</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,46 +1402,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.028981333333333</v>
+        <v>1.377142</v>
       </c>
       <c r="H16">
-        <v>6.086944</v>
+        <v>4.131426</v>
       </c>
       <c r="I16">
-        <v>0.2568816058628459</v>
+        <v>0.2038943003674704</v>
       </c>
       <c r="J16">
-        <v>0.2568816058628459</v>
+        <v>0.2038943003674704</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.2142513333333333</v>
+        <v>0.1668016666666667</v>
       </c>
       <c r="N16">
-        <v>0.642754</v>
+        <v>0.500405</v>
       </c>
       <c r="O16">
-        <v>0.02712554603669225</v>
+        <v>0.02469600747426772</v>
       </c>
       <c r="P16">
-        <v>0.02712554603669225</v>
+        <v>0.02469600747426772</v>
       </c>
       <c r="Q16">
-        <v>0.4347119559751111</v>
+        <v>0.2297095808366667</v>
       </c>
       <c r="R16">
-        <v>3.912407603776</v>
+        <v>2.06738622753</v>
       </c>
       <c r="S16">
-        <v>0.006968053825812061</v>
+        <v>0.005035375165835636</v>
       </c>
       <c r="T16">
-        <v>0.006968053825812062</v>
+        <v>0.005035375165835636</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,16 +1464,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.028981333333333</v>
+        <v>1.377142</v>
       </c>
       <c r="H17">
-        <v>6.086944</v>
+        <v>4.131426</v>
       </c>
       <c r="I17">
-        <v>0.2568816058628459</v>
+        <v>0.2038943003674704</v>
       </c>
       <c r="J17">
-        <v>0.2568816058628459</v>
+        <v>0.2038943003674704</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1482,28 +1482,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.028981333333333</v>
+        <v>1.377142</v>
       </c>
       <c r="N17">
-        <v>6.086944</v>
+        <v>4.131426</v>
       </c>
       <c r="O17">
-        <v>0.2568816058628459</v>
+        <v>0.2038943003674704</v>
       </c>
       <c r="P17">
-        <v>0.2568816058628459</v>
+        <v>0.2038943003674704</v>
       </c>
       <c r="Q17">
-        <v>4.116765251015111</v>
+        <v>1.896520088164</v>
       </c>
       <c r="R17">
-        <v>37.050887259136</v>
+        <v>17.068680793476</v>
       </c>
       <c r="S17">
-        <v>0.06598815943067451</v>
+        <v>0.04157288572234023</v>
       </c>
       <c r="T17">
-        <v>0.06598815943067451</v>
+        <v>0.04157288572234023</v>
       </c>
     </row>
   </sheetData>
